--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="13">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">MENSGAM</t>
   </si>
   <si>
+    <t xml:space="preserve">AJUSTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Francisco santosde souza filho</t>
   </si>
   <si>
@@ -41,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hello word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssssssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sssssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssssssssssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sssssssssss</t>
   </si>
 </sst>
 </file>
@@ -309,17 +327,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="114.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -335,1041 +353,1067 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>92993160919</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K78" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>NOME</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TELEFONE</t>
   </si>
   <si>
-    <t>MENSGAM</t>
+    <t>MENSAGEM</t>
   </si>
   <si>
     <t>AJUSTE</t>
@@ -37,28 +37,20 @@
     <t>francisco@hmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Olá, tudo bem? 😊
-Aqui está o nosso lembrete diário:
-🌟 *Dica do dia*: Sempre acredite em você mesmo! Acredite no seu potencial e nunca deixe que ninguém te faça duvidar do que você é capaz. O sucesso começa com a confiança em si mesmo!
-🚀 Lembre-se de que a jornada é feita de pequenas vitórias. Cada passo dado é um passo mais perto dos seus objetivos! Mantenha o foco, a paciência e a perseverança. 💪
-E claro, aqui vai uma figurinha divertida para animar o seu dia! ⬇️
-🎉 *Vamos juntos nessa jornada! Cada dia é uma nova oportunidade para crescer e brilhar!*
-✨ Não se esqueça de sorrir e espalhar energia positiva por onde você passar. O seu sorriso pode iluminar o dia de alguém! 😄
-Um ótimo dia para você! 🌞💫
+    <t>Olá, tudo bem? 😊&amp;#10;&amp;#10;Aqui está o nosso lembrete diário:&amp;#10;&amp;#10;🌟 *Dica do dia*: Sempre acredite em você mesmo! Acredite no seu potencial e nunca deixe que ninguém te faça duvidar do que você é capaz. O sucesso começa com a confiança em si mesmo!&amp;#10;&amp;#10;🚀 Lembre-se de que a jornada é feita de pequenas vitórias. Cada passo dado é um passo mais perto dos seus objetivos! Mantenha o foco, a paciência e a perseverança. 💪&amp;#10;&amp;#10;E claro, aqui vai uma figurinha divertida para animar o seu dia! ⬇️&amp;#10;&amp;#10;🎉 *Vamos juntos nessa jornada! Cada dia é uma nova oportunidade para crescer e brilhar!*&amp;#10;&amp;#10;✨ Não se esqueça de sorrir e espalhar energia positiva por onde você passar. O seu sorriso pode iluminar o dia de alguém! 😄&amp;#10;&amp;#10;Um ótimo dia para você! 🌞💫&amp;#10;</t>
+  </si>
+  <si>
+    <t>Flavia de souza pimentel</t>
+  </si>
+  <si>
+    <t>fla@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olá, tudo bem? 😊&amp;#10;&amp;#10;Aqui está o nosso lembrete diário:&amp;#10;&amp;#10;🌟 *Dica do dia*: Sempre acredite em você mesmo! Acredite no seu potencial e nunca deixe que ninguém te faça duvidar do que você é capaz. O sucesso começa com a confiança em si mesmo!&amp;#10;&amp;#10;🚀 Lembre-se de que a jornada é feita de pequenas vitórias. Cada passo dado é um passo mais perto dos seus objetivos! Mantenha o foco, a paciência e a perseverança. 💪&amp;#10;&amp;#10;E claro, aqui vai uma figurinha divertida para animar o seu dia! ⬇️&amp;#10;&amp;#10;🎉 *Vamos juntos nessa jornada! Cada dia é uma nova oportunidade para crescer e brilhar!*&amp;#10;&amp;#10;✨ Não se esqueça de sorrir e espalhar energia positiva por onde você passar. O seu sorriso pode iluminar o dia de alguém! 😄&amp;#10;&amp;#10;Um ótimo dia para você! 🌞💫&amp;#10;
 </t>
   </si>
   <si>
-    <t>Hello word</t>
-  </si>
-  <si>
     <t>sssssss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olá, tudo bem? 😊
-Aqui está o nosso lembrete diário:
-🌟 *Dica do dia*: Sempre acredite em você mesmo!
-E claro, aqui vai uma figurinha divertida para animar o dia! ⬇️
-</t>
   </si>
   <si>
     <t>ssssssssss</t>
@@ -126,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -137,20 +129,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,23 +452,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="132.57642857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="132.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -511,7 +500,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="92.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="221.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,16 +529,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>92993160919</v>
+        <v>92991678584</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -566,18 +555,10 @@
       <c r="Q3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -593,20 +574,12 @@
       <c r="Q4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -622,18 +595,10 @@
       <c r="Q5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -648,19 +613,11 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="92.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -676,24 +633,16 @@
       <c r="Q7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -705,18 +654,10 @@
       <c r="Q8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -732,18 +673,10 @@
       <c r="Q9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -759,18 +692,10 @@
       <c r="Q10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -786,18 +711,10 @@
       <c r="Q11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -811,22 +728,14 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -842,18 +751,10 @@
       <c r="Q13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -869,18 +770,10 @@
       <c r="Q14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -895,19 +788,11 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -923,18 +808,10 @@
       <c r="Q16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -949,19 +826,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -976,19 +845,11 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1003,19 +864,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1030,19 +883,11 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1057,19 +902,11 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1084,19 +921,11 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1104,7 +933,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1113,19 +942,11 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1140,19 +961,11 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1167,19 +980,11 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1194,19 +999,11 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1221,19 +1018,11 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1248,19 +1037,11 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1275,19 +1056,11 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1302,19 +1075,11 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1329,19 +1094,11 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1356,19 +1113,11 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1384,18 +1133,10 @@
       <c r="Q33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1411,18 +1152,10 @@
       <c r="Q34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1438,18 +1171,10 @@
       <c r="Q35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1465,18 +1190,10 @@
       <c r="Q36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1492,18 +1209,10 @@
       <c r="Q37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1519,18 +1228,10 @@
       <c r="Q38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1546,18 +1247,10 @@
       <c r="Q39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1573,18 +1266,10 @@
       <c r="Q40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1600,18 +1285,10 @@
       <c r="Q41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1627,18 +1304,10 @@
       <c r="Q42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1654,18 +1323,10 @@
       <c r="Q43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1681,18 +1342,10 @@
       <c r="Q44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1708,18 +1361,10 @@
       <c r="Q45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1735,18 +1380,10 @@
       <c r="Q46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1762,18 +1399,10 @@
       <c r="Q47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1789,18 +1418,10 @@
       <c r="Q48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1816,18 +1437,10 @@
       <c r="Q49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1843,18 +1456,10 @@
       <c r="Q50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1870,18 +1475,10 @@
       <c r="Q51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1897,18 +1494,10 @@
       <c r="Q52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1924,18 +1513,10 @@
       <c r="Q53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1951,18 +1532,10 @@
       <c r="Q54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1978,18 +1551,10 @@
       <c r="Q55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2005,18 +1570,10 @@
       <c r="Q56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2032,18 +1589,10 @@
       <c r="Q57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2059,18 +1608,10 @@
       <c r="Q58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2086,18 +1627,10 @@
       <c r="Q59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2113,18 +1646,10 @@
       <c r="Q60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2140,18 +1665,10 @@
       <c r="Q61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -2167,18 +1684,10 @@
       <c r="Q62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2194,18 +1703,10 @@
       <c r="Q63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2221,18 +1722,10 @@
       <c r="Q64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -2248,18 +1741,10 @@
       <c r="Q65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -2275,18 +1760,10 @@
       <c r="Q66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -2302,18 +1779,10 @@
       <c r="Q67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -2329,18 +1798,10 @@
       <c r="Q68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -2356,18 +1817,10 @@
       <c r="Q69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2383,18 +1836,10 @@
       <c r="Q70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -2410,18 +1855,10 @@
       <c r="Q71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2437,18 +1874,10 @@
       <c r="Q72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2456,7 +1885,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2466,22 +1895,14 @@
       <c r="Q73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -2495,18 +1916,10 @@
       <c r="Q74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="5">
-        <v>92993160919</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2524,7 +1937,7 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2543,7 +1956,7 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2562,7 +1975,7 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2571,7 +1984,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>

--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>NOME</t>
   </si>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -129,11 +129,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -452,23 +455,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="63.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="132.57642857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="132.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -507,7 +510,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>92993160919</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -519,7 +522,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -527,15 +530,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="234.75">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
-        <v>92991678584</v>
+      <c r="C3" s="4">
+        <v>92993160919</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -546,7 +549,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -554,18 +557,26 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="37.5">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -573,11 +584,19 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -586,7 +605,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -594,18 +613,26 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -613,18 +640,26 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -632,11 +667,19 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -645,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -653,18 +696,26 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -672,18 +723,26 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -691,18 +750,26 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -710,18 +777,26 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -731,18 +806,26 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -750,18 +833,26 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -769,18 +860,26 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -788,18 +887,26 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -807,18 +914,26 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="37.5">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -826,18 +941,26 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -845,18 +968,26 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -864,18 +995,26 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -883,18 +1022,26 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="37.5">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>92993160919</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -905,7 +1052,7 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -913,7 +1060,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -924,7 +1071,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -945,7 +1092,7 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -953,7 +1100,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -964,7 +1111,7 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -972,7 +1119,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -983,7 +1130,7 @@
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -991,7 +1138,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1002,7 +1149,7 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1010,7 +1157,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1021,7 +1168,7 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1029,7 +1176,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1040,7 +1187,7 @@
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1048,7 +1195,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1059,7 +1206,7 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1067,7 +1214,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1078,7 +1225,7 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1086,7 +1233,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1097,7 +1244,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1105,7 +1252,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1116,7 +1263,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1124,7 +1271,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -1135,7 +1282,7 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1143,7 +1290,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -1154,7 +1301,7 @@
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1162,7 +1309,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -1173,7 +1320,7 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1181,7 +1328,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -1192,7 +1339,7 @@
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1200,7 +1347,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -1211,7 +1358,7 @@
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1219,7 +1366,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -1230,7 +1377,7 @@
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1238,7 +1385,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -1249,7 +1396,7 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1257,7 +1404,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -1268,7 +1415,7 @@
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1276,7 +1423,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -1287,7 +1434,7 @@
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1295,7 +1442,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -1306,7 +1453,7 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1314,7 +1461,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -1325,7 +1472,7 @@
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1333,7 +1480,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -1344,7 +1491,7 @@
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1352,7 +1499,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -1363,7 +1510,7 @@
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1371,7 +1518,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -1382,7 +1529,7 @@
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1390,7 +1537,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -1401,7 +1548,7 @@
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1409,7 +1556,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -1420,7 +1567,7 @@
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1428,7 +1575,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -1439,7 +1586,7 @@
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1447,7 +1594,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -1458,7 +1605,7 @@
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1466,7 +1613,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -1477,7 +1624,7 @@
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1485,7 +1632,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -1496,7 +1643,7 @@
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1504,7 +1651,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -1515,7 +1662,7 @@
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1523,7 +1670,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -1534,7 +1681,7 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1542,7 +1689,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -1553,7 +1700,7 @@
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1561,7 +1708,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -1572,7 +1719,7 @@
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="1"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1580,7 +1727,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -1591,7 +1738,7 @@
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="1"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1599,7 +1746,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -1610,7 +1757,7 @@
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="1"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1618,7 +1765,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -1629,7 +1776,7 @@
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="1"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1637,7 +1784,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -1648,7 +1795,7 @@
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1656,7 +1803,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -1667,7 +1814,7 @@
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1675,7 +1822,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -1686,7 +1833,7 @@
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1694,7 +1841,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="4"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -1705,7 +1852,7 @@
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1713,7 +1860,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -1724,7 +1871,7 @@
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1732,7 +1879,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -1743,7 +1890,7 @@
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="1"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1751,7 +1898,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -1762,7 +1909,7 @@
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="1"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1770,7 +1917,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -1781,7 +1928,7 @@
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="1"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1789,7 +1936,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -1800,7 +1947,7 @@
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="1"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -1808,7 +1955,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="4"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -1819,7 +1966,7 @@
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="1"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -1827,7 +1974,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -1838,7 +1985,7 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="1"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -1846,7 +1993,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="4"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -1857,7 +2004,7 @@
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="1"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -1865,7 +2012,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -1876,7 +2023,7 @@
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="1"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -1897,7 +2044,7 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="1"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -1907,7 +2054,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -1918,7 +2065,7 @@
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="1"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -1926,7 +2073,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="4"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -1937,7 +2084,7 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -1945,7 +2092,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="4"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -1956,7 +2103,7 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -1964,7 +2111,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="4"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -1975,7 +2122,7 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
